--- a/data/trans_camb/P36B13_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B13_R-Provincia-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-20.12911644491982</v>
+        <v>-20.05277053606702</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.37293062048501</v>
+        <v>-18.58051461451705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.61754716917281</v>
+        <v>-17.94325097281975</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-11.07875952969495</v>
+        <v>-11.15390466009468</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.914551117277405</v>
+        <v>-10.34522684151574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-11.68809995146938</v>
+        <v>-11.59980226605401</v>
       </c>
     </row>
     <row r="7">
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>-0.8504914170805643</v>
+        <v>-0.8499601261624503</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.9264159431954747</v>
+        <v>-0.9296446169618929</v>
       </c>
     </row>
     <row r="10">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.54748413638232</v>
+        <v>-13.56561299051009</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.243208282585417</v>
+        <v>-7.990049557397319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.737436135221142</v>
+        <v>-9.639058242644063</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.890538882623896</v>
+        <v>-5.604241777462979</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.891218927662888</v>
+        <v>-2.844187317305931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.911860278849253</v>
+        <v>-5.111695233270535</v>
       </c>
     </row>
     <row r="13">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8667177171045962</v>
+        <v>-0.8625929874779645</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8511781398442242</v>
+        <v>-0.8296342138215651</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8151072160741847</v>
+        <v>-0.8125224753827043</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.4606620229690832</v>
+        <v>-0.4444228482117275</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.4396863938519602</v>
+        <v>-0.4327088273447335</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5021683345628757</v>
+        <v>-0.5257705439386636</v>
       </c>
     </row>
     <row r="16">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-20.10766481596575</v>
+        <v>-20.00498800906729</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.959781711076529</v>
+        <v>-10.11313291989774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.66544348268586</v>
+        <v>-13.50031580715871</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.41978617433911</v>
+        <v>-10.11642253756127</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.257465292146941</v>
+        <v>-2.231881409493463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.678354310535579</v>
+        <v>-7.583623542539171</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8849158763536805</v>
+        <v>-0.8817594834806649</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7911764424237707</v>
+        <v>-0.783807636100756</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8111974141015689</v>
+        <v>-0.8272678186033802</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.6126567309375018</v>
+        <v>-0.6137690939543283</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2540541079152961</v>
+        <v>-0.2679162496728638</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5771467928504533</v>
+        <v>-0.5946460049048939</v>
       </c>
     </row>
     <row r="22">
@@ -884,7 +884,7 @@
         <v>-4.075706956884022</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.349923716884199</v>
+        <v>-5.3499237168842</v>
       </c>
     </row>
     <row r="23">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.57356795523376</v>
+        <v>-11.49784175391059</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.781323712035691</v>
+        <v>-7.09056957437816</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.043246706743142</v>
+        <v>-8.122963951362507</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.6232779164834067</v>
+        <v>-1.419755976006158</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.275231241008653</v>
+        <v>-1.628457531648881</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.215700206002619</v>
+        <v>-2.458657872531279</v>
       </c>
     </row>
     <row r="25">
@@ -932,10 +932,10 @@
         <v>-0.5140329623572532</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.7114180258940797</v>
+        <v>-0.7114180258940795</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.5878672061997693</v>
+        <v>-0.5878672061997695</v>
       </c>
     </row>
     <row r="26">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7656867083861125</v>
+        <v>-0.7807755267388506</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8798723960433497</v>
+        <v>-0.880450272767161</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7717034244885915</v>
+        <v>-0.7686803851980947</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.02105695170367163</v>
+        <v>-0.09162247647287358</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2729511263053367</v>
+        <v>-0.31751513712257</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.26917229842138</v>
+        <v>-0.2667850976322289</v>
       </c>
     </row>
     <row r="28">
@@ -990,7 +990,7 @@
         <v>-3.949796687476485</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-5.8993306671528</v>
+        <v>-5.899330667152801</v>
       </c>
     </row>
     <row r="29">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.61244464648595</v>
+        <v>-12.48260200439555</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.730942476883447</v>
+        <v>-7.394160759716412</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.501325745878619</v>
+        <v>-9.166489714291828</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.029427747058265</v>
+        <v>-4.03998104231056</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.659540207420627</v>
+        <v>-1.56206875352802</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.664340522714415</v>
+        <v>-3.769889451200791</v>
       </c>
     </row>
     <row r="31">
@@ -1041,7 +1041,7 @@
         <v>-0.8253005653298018</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.8318792481426821</v>
+        <v>-0.8318792481426822</v>
       </c>
     </row>
     <row r="32">
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9399152203918782</v>
+        <v>-0.9465889533071037</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9627237319592145</v>
+        <v>-0.9644709899386866</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.9299416612582734</v>
+        <v>-0.9343337316660955</v>
       </c>
     </row>
     <row r="33">
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.5143448835070802</v>
+        <v>-0.5815793417658016</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3640457158044539</v>
+        <v>-0.3580976190625027</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.649715732821269</v>
+        <v>-0.6598700560841844</v>
       </c>
     </row>
     <row r="34">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-3.086743152756191</v>
+        <v>-3.08674315275619</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>-2.779609075413743</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.710091333168854</v>
+        <v>-6.997654310911376</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.601542651040526</v>
+        <v>-5.498922247026576</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.163541515926938</v>
+        <v>-5.038584252910311</v>
       </c>
     </row>
     <row r="36">
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.5030153006307252</v>
+        <v>0.2793399873739082</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.9012362536796656</v>
+        <v>-0.6225100046844895</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.6249978129711113</v>
+        <v>-0.7144037906717937</v>
       </c>
     </row>
     <row r="37">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>-0.4937645926883476</v>
+        <v>-0.4937645926883475</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>-0.8378867010795656</v>
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8072135467817259</v>
+        <v>-0.7969407139133334</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8300499558732449</v>
+        <v>-0.8449094001859929</v>
       </c>
     </row>
     <row r="39">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1963516794698057</v>
+        <v>0.1913870492205693</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.002192609393729275</v>
+        <v>0.9933735613579062</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.07503608059762447</v>
+        <v>-0.1167748695620533</v>
       </c>
     </row>
     <row r="40">
@@ -1202,7 +1202,7 @@
         <v>-0.1640164878178495</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.5486078149430834</v>
+        <v>0.5486078149430862</v>
       </c>
     </row>
     <row r="41">
@@ -1213,13 +1213,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.284491644698478</v>
+        <v>-2.523760267689892</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.66452363508292</v>
+        <v>-2.523446255483048</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.562130440567277</v>
+        <v>-1.748087169068771</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.748424995660539</v>
+        <v>5.040656038196111</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.213398631498035</v>
+        <v>2.261674725861497</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.860006140332962</v>
+        <v>2.652311457842811</v>
       </c>
     </row>
     <row r="43">
@@ -1253,7 +1253,7 @@
         <v>-0.03200296095618606</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.08108009257835704</v>
+        <v>0.08108009257835744</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2328842209471588</v>
+        <v>-0.2538649178243514</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4196689772397079</v>
+        <v>-0.4039027930171792</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2111739529656068</v>
+        <v>-0.2244440586805086</v>
       </c>
     </row>
     <row r="45">
@@ -1281,13 +1281,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6583485779694143</v>
+        <v>0.7077318347005077</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5599168766479761</v>
+        <v>0.6401224576453652</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4890334390476826</v>
+        <v>0.4464738351236415</v>
       </c>
     </row>
     <row r="46">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.606230801662787</v>
+        <v>-2.136771254269344</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.007343464574206</v>
+        <v>-4.877411300506267</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.74762125655108</v>
+        <v>-2.877805010359376</v>
       </c>
     </row>
     <row r="48">
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.685596478384826</v>
+        <v>5.866377843900076</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.7020968506341846</v>
+        <v>0.6993585446164964</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.193706581703729</v>
+        <v>2.028364422498043</v>
       </c>
     </row>
     <row r="49">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1578976315688824</v>
+        <v>-0.1417748470187589</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4304212714403165</v>
+        <v>-0.4150590067797673</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2074003278706615</v>
+        <v>-0.2092010627288921</v>
       </c>
     </row>
     <row r="51">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4653824101292791</v>
+        <v>0.4794817799046664</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.07584773162788838</v>
+        <v>0.0854267534774495</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2071105208856177</v>
+        <v>0.1933556085484768</v>
       </c>
     </row>
     <row r="52">
@@ -1414,7 +1414,7 @@
         <v>-3.97168202717515</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-4.456957896129127</v>
+        <v>-4.456957896129128</v>
       </c>
     </row>
     <row r="53">
@@ -1425,13 +1425,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-6.513153697122117</v>
+        <v>-6.550765791386285</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-5.076313456110231</v>
+        <v>-5.080998952613384</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-5.429206086880624</v>
+        <v>-5.441378004084004</v>
       </c>
     </row>
     <row r="54">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-3.365983858837008</v>
+        <v>-3.264024812957699</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-2.809811726353954</v>
+        <v>-2.860886507275472</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-3.481446777203558</v>
+        <v>-3.462642422301272</v>
       </c>
     </row>
     <row r="55">
@@ -1465,7 +1465,7 @@
         <v>-0.5061422343888472</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.4420108162744483</v>
+        <v>-0.4420108162744484</v>
       </c>
     </row>
     <row r="56">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.488462812668582</v>
+        <v>-0.4995334593519543</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.5988036177719952</v>
+        <v>-0.5952972540790361</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.5112543725221147</v>
+        <v>-0.5140855484491232</v>
       </c>
     </row>
     <row r="57">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.285462399055082</v>
+        <v>-0.2790389230929441</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.3928746307261158</v>
+        <v>-0.3972778688464612</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.3590144408588149</v>
+        <v>-0.3608604102106658</v>
       </c>
     </row>
     <row r="58">
